--- a/worksheet.xlsx
+++ b/worksheet.xlsx
@@ -24,52 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
-  <si>
-    <t>keycloak environment</t>
-  </si>
-  <si>
-    <t>java jdk setup</t>
-  </si>
-  <si>
-    <t>installation of keycloak</t>
-  </si>
-  <si>
-    <t>user creation</t>
-  </si>
-  <si>
-    <t>client creation</t>
-  </si>
-  <si>
-    <t>keycloak token generation &amp; verification with postman</t>
-  </si>
-  <si>
-    <t>verification with introspect(setup introspect in postman)</t>
-  </si>
-  <si>
-    <t>verification with logout (setup logout with postman)</t>
-  </si>
-  <si>
-    <t>verification with token (setup token in postman)</t>
-  </si>
-  <si>
-    <t>RBAC roles GET API creation</t>
-  </si>
-  <si>
-    <t>RBAC roles POST API creation</t>
-  </si>
-  <si>
-    <t>RBAC assign-role POST API creation</t>
-  </si>
-  <si>
-    <t>user info GET API creation</t>
-  </si>
-  <si>
-    <t>login POST API creation</t>
-  </si>
-  <si>
-    <t>refresh_token POST API creation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>2 . Rahul Patidar</t>
   </si>
@@ -80,69 +35,15 @@
     <t>Team Members</t>
   </si>
   <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>BOTH</t>
-  </si>
-  <si>
-    <t>Naga Bala</t>
-  </si>
-  <si>
-    <t>keycloak integration with google idp</t>
-  </si>
-  <si>
-    <t>keycloak integration with microsoft idp</t>
-  </si>
-  <si>
-    <t>keycloak integration with github idp</t>
-  </si>
-  <si>
-    <t>login page creation</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>keycloak integration with login page</t>
-  </si>
-  <si>
     <t>3.5 GenAI-Powered Unified Authentication and Authorization (A&amp;A) System for Multi-Cloud Environments</t>
   </si>
   <si>
-    <t>docker implementation</t>
-  </si>
-  <si>
     <t>ETA</t>
   </si>
   <si>
-    <t>Inprogress</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4 hours</t>
-  </si>
-  <si>
-    <t>4 hours</t>
-  </si>
-  <si>
-    <t>8-9 hours</t>
-  </si>
-  <si>
-    <t>3 hours</t>
-  </si>
-  <si>
-    <t>13/09/2024</t>
-  </si>
-  <si>
-    <t>2 hours</t>
-  </si>
-  <si>
     <t>Assignments/Task</t>
   </si>
   <si>
-    <t>Completed / not Completed</t>
-  </si>
-  <si>
     <t>Done by person</t>
   </si>
   <si>
@@ -150,6 +51,9 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Completed / Inprogress</t>
   </si>
 </sst>
 </file>
@@ -181,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -208,6 +112,35 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -216,25 +149,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -245,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,23 +183,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -282,6 +198,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,450 +504,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A3" s="15"/>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="15"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="7"/>
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>41</v>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="12">
-        <v>45574</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="12">
-        <v>45574</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="13">
-        <v>45605</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="13">
-        <v>45635</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="13">
-        <v>45635</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="13">
-        <v>45635</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="13">
-        <v>45635</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="13">
-        <v>45635</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="13">
-        <v>45635</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A26" s="3"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1081,9 +867,10 @@
       <c r="E49" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="A7:A8"/>
